--- a/Packages/cn.etetet.achievement/Luban/Config/Base/__beans__.xlsx
+++ b/Packages/cn.etetet.achievement/Luban/Config/Base/__beans__.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10720"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.wow/Luban/Config/Base/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.achievement/Luban/Config/Base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26759EA1-AC84-AF45-9136-EC814731C8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF49378C-B208-3E4D-A130-B7CE3B0C91DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1840" yWindow="3040" windowWidth="28920" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>##var</t>
   </si>
@@ -99,42 +99,6 @@
   </si>
   <si>
     <t>字段变体</t>
-  </si>
-  <si>
-    <t>ET.QuestObjectiveParams</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>MonsterId</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ET.QuestObjectiveParams_KillMonster</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>击杀的怪物Id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ET.QuestObjectiveParams_Collectltem</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物配置Id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemId</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具Id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -519,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="A4" sqref="A4:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -626,51 +590,6 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
-      <c r="B4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="B6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="B8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="J1:P1"/>
